--- a/Jogos_do_Dia/2023-08-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>League</t>
   </si>
@@ -127,21 +127,21 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
+    <t>Norway First Division</t>
+  </si>
+  <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
-    <t>Norway First Division</t>
-  </si>
-  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>Italy Serie B</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -178,9 +181,6 @@
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>12:30:00</t>
   </si>
   <si>
@@ -217,39 +217,42 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Hermannstadt</t>
   </si>
   <si>
     <t>Salernitana</t>
   </si>
   <si>
+    <t>CD Nacional</t>
+  </si>
+  <si>
+    <t>CD Eldense</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>GIF Sundsvall</t>
+  </si>
+  <si>
     <t>Vejle</t>
   </si>
   <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
     <t>AFC Eskilstuna</t>
   </si>
   <si>
-    <t>CD Nacional</t>
-  </si>
-  <si>
-    <t>CD Eldense</t>
-  </si>
-  <si>
-    <t>Moss</t>
-  </si>
-  <si>
-    <t>Elfsborg</t>
-  </si>
-  <si>
-    <t>GAIS</t>
-  </si>
-  <si>
-    <t>AIK</t>
-  </si>
-  <si>
-    <t>GIF Sundsvall</t>
-  </si>
-  <si>
     <t>Sirius</t>
   </si>
   <si>
@@ -259,27 +262,27 @@
     <t>Getafe CF</t>
   </si>
   <si>
+    <t>PSV II</t>
+  </si>
+  <si>
     <t>AZ II</t>
   </si>
   <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
     <t>HK</t>
   </si>
   <si>
-    <t>Adana Demirspor</t>
-  </si>
-  <si>
-    <t>PSV II</t>
-  </si>
-  <si>
     <t>UTA Arad</t>
   </si>
   <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
     <t>Annecy</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Rio Ave FC</t>
   </si>
   <si>
@@ -292,6 +295,9 @@
     <t>Como</t>
   </si>
   <si>
+    <t>Resistencia</t>
+  </si>
+  <si>
     <t>Banfield</t>
   </si>
   <si>
@@ -301,7 +307,7 @@
     <t>Botafogo SP</t>
   </si>
   <si>
-    <t>Resistencia</t>
+    <t>Atlético Tucumán</t>
   </si>
   <si>
     <t>Universitatea Cluj</t>
@@ -310,33 +316,33 @@
     <t>Udinese</t>
   </si>
   <si>
+    <t>Leixões</t>
+  </si>
+  <si>
+    <t>SD Eibar</t>
+  </si>
+  <si>
+    <t>Kristiansund</t>
+  </si>
+  <si>
+    <t>Jönköpings Södra</t>
+  </si>
+  <si>
     <t>Brøndby</t>
   </si>
   <si>
+    <t>Skövde AIK</t>
+  </si>
+  <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
+    <t>Varberg</t>
+  </si>
+  <si>
     <t>Gefle</t>
   </si>
   <si>
-    <t>Leixões</t>
-  </si>
-  <si>
-    <t>SD Eibar</t>
-  </si>
-  <si>
-    <t>Kristiansund</t>
-  </si>
-  <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
-    <t>Skövde AIK</t>
-  </si>
-  <si>
-    <t>Varberg</t>
-  </si>
-  <si>
-    <t>Jönköpings Södra</t>
-  </si>
-  <si>
     <t>Malmö FF</t>
   </si>
   <si>
@@ -346,27 +352,27 @@
     <t>Deportivo Alavés</t>
   </si>
   <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
     <t>Telstar</t>
   </si>
   <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
     <t>ÍBV</t>
   </si>
   <si>
-    <t>Beşiktaş</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
     <t>FCSB</t>
   </si>
   <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
     <t>Saint-Étienne</t>
   </si>
   <si>
-    <t>Inter Milan</t>
-  </si>
-  <si>
     <t>Porto</t>
   </si>
   <si>
@@ -379,6 +385,9 @@
     <t>Lecco</t>
   </si>
   <si>
+    <t>Nacional Asunción</t>
+  </si>
+  <si>
     <t>Rosario Central</t>
   </si>
   <si>
@@ -388,7 +397,7 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>Nacional Asunción</t>
+    <t>Instituto</t>
   </si>
 </sst>
 </file>
@@ -750,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,10 +886,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <v>2.2</v>
@@ -904,10 +913,10 @@
         <v>2.55</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="O2">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="P2">
         <v>1.53</v>
@@ -984,19 +993,19 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="H3">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1014,7 +1023,7 @@
         <v>1.97</v>
       </c>
       <c r="O3">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1088,100 +1097,100 @@
         <v>57</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>3.26</v>
+        <v>2.02</v>
       </c>
       <c r="H4">
-        <v>3.27</v>
+        <v>2.94</v>
       </c>
       <c r="I4">
+        <v>3.08</v>
+      </c>
+      <c r="J4">
+        <v>1.06</v>
+      </c>
+      <c r="K4">
+        <v>7.2</v>
+      </c>
+      <c r="L4">
+        <v>1.28</v>
+      </c>
+      <c r="M4">
+        <v>3.3</v>
+      </c>
+      <c r="N4">
+        <v>1.95</v>
+      </c>
+      <c r="O4">
+        <v>1.76</v>
+      </c>
+      <c r="P4">
+        <v>1.44</v>
+      </c>
+      <c r="Q4">
+        <v>2.6</v>
+      </c>
+      <c r="R4">
+        <v>1.77</v>
+      </c>
+      <c r="S4">
         <v>1.93</v>
       </c>
-      <c r="J4">
-        <v>1.03</v>
-      </c>
-      <c r="K4">
-        <v>12.5</v>
-      </c>
-      <c r="L4">
-        <v>1.25</v>
-      </c>
-      <c r="M4">
-        <v>3.95</v>
-      </c>
-      <c r="N4">
-        <v>1.76</v>
-      </c>
-      <c r="O4">
-        <v>1.85</v>
-      </c>
-      <c r="P4">
-        <v>1.33</v>
-      </c>
-      <c r="Q4">
-        <v>3.25</v>
-      </c>
-      <c r="R4">
-        <v>1.67</v>
-      </c>
-      <c r="S4">
-        <v>2.1</v>
-      </c>
       <c r="T4">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="U4">
         <v>1.24</v>
       </c>
       <c r="V4">
+        <v>1.52</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1.07</v>
+      </c>
+      <c r="Z4">
+        <v>0.93</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>1.8</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>2.4</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1.16</v>
+      </c>
+      <c r="AG4">
         <v>1.3</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>1.19</v>
-      </c>
-      <c r="Z4">
-        <v>1.11</v>
-      </c>
-      <c r="AA4">
-        <v>2.3</v>
-      </c>
-      <c r="AB4">
-        <v>2.66</v>
-      </c>
-      <c r="AC4">
-        <v>8.5</v>
-      </c>
-      <c r="AD4">
-        <v>1.64</v>
-      </c>
-      <c r="AE4">
-        <v>1.21</v>
-      </c>
-      <c r="AF4">
-        <v>1.58</v>
-      </c>
-      <c r="AG4">
+      <c r="AH4">
+        <v>1.52</v>
+      </c>
+      <c r="AI4">
         <v>1.9</v>
-      </c>
-      <c r="AH4">
-        <v>2.5</v>
-      </c>
-      <c r="AI4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1195,100 +1204,100 @@
         <v>57</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="H5">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="I5">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="J5">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>6.99</v>
       </c>
       <c r="L5">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N5">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="O5">
-        <v>1.78</v>
+        <v>1.39</v>
       </c>
       <c r="P5">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="T5">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="U5">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.31</v>
       </c>
       <c r="W5">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1.63</v>
+      </c>
+      <c r="AA5">
+        <v>1.63</v>
+      </c>
+      <c r="AB5">
+        <v>1.91</v>
+      </c>
+      <c r="AC5">
+        <v>7.5</v>
+      </c>
+      <c r="AD5">
+        <v>2.2</v>
+      </c>
+      <c r="AE5">
+        <v>1.3</v>
+      </c>
+      <c r="AF5">
         <v>1.57</v>
       </c>
-      <c r="Z5">
-        <v>0.8</v>
-      </c>
-      <c r="AA5">
-        <v>2.37</v>
-      </c>
-      <c r="AB5">
-        <v>1.38</v>
-      </c>
-      <c r="AC5">
-        <v>8</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>1.19</v>
-      </c>
-      <c r="AF5">
-        <v>1.36</v>
-      </c>
       <c r="AG5">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="AH5">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="AI5">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1302,100 +1311,100 @@
         <v>57</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G6">
+        <v>2.58</v>
+      </c>
+      <c r="H6">
+        <v>3.13</v>
+      </c>
+      <c r="I6">
+        <v>2.21</v>
+      </c>
+      <c r="J6">
+        <v>1.02</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>1.22</v>
+      </c>
+      <c r="M6">
+        <v>4.2</v>
+      </c>
+      <c r="N6">
+        <v>1.65</v>
+      </c>
+      <c r="O6">
+        <v>2.11</v>
+      </c>
+      <c r="P6">
+        <v>1.32</v>
+      </c>
+      <c r="Q6">
+        <v>3.1</v>
+      </c>
+      <c r="R6">
+        <v>1.62</v>
+      </c>
+      <c r="S6">
+        <v>2.25</v>
+      </c>
+      <c r="T6">
+        <v>1.63</v>
+      </c>
+      <c r="U6">
+        <v>1.25</v>
+      </c>
+      <c r="V6">
+        <v>1.4</v>
+      </c>
+      <c r="W6">
+        <v>1.9</v>
+      </c>
+      <c r="X6">
+        <v>0.75</v>
+      </c>
+      <c r="Y6">
+        <v>1.57</v>
+      </c>
+      <c r="Z6">
+        <v>1.38</v>
+      </c>
+      <c r="AA6">
+        <v>2.95</v>
+      </c>
+      <c r="AB6">
+        <v>1.8</v>
+      </c>
+      <c r="AC6">
+        <v>5.75</v>
+      </c>
+      <c r="AD6">
+        <v>2.3</v>
+      </c>
+      <c r="AE6">
+        <v>1.18</v>
+      </c>
+      <c r="AF6">
+        <v>1.34</v>
+      </c>
+      <c r="AG6">
+        <v>1.6</v>
+      </c>
+      <c r="AH6">
         <v>2.02</v>
       </c>
-      <c r="H6">
-        <v>2.94</v>
-      </c>
-      <c r="I6">
-        <v>3.08</v>
-      </c>
-      <c r="J6">
-        <v>1.06</v>
-      </c>
-      <c r="K6">
-        <v>7.2</v>
-      </c>
-      <c r="L6">
-        <v>1.28</v>
-      </c>
-      <c r="M6">
-        <v>3.3</v>
-      </c>
-      <c r="N6">
-        <v>2.05</v>
-      </c>
-      <c r="O6">
-        <v>1.67</v>
-      </c>
-      <c r="P6">
-        <v>1.44</v>
-      </c>
-      <c r="Q6">
-        <v>2.6</v>
-      </c>
-      <c r="R6">
-        <v>1.77</v>
-      </c>
-      <c r="S6">
-        <v>1.93</v>
-      </c>
-      <c r="T6">
-        <v>1.3</v>
-      </c>
-      <c r="U6">
-        <v>1.24</v>
-      </c>
-      <c r="V6">
-        <v>1.52</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>1.07</v>
-      </c>
-      <c r="Z6">
-        <v>0.93</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1.3</v>
-      </c>
-      <c r="AH6">
-        <v>1.52</v>
-      </c>
       <c r="AI6">
-        <v>1.9</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1409,100 +1418,100 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="H7">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="I7">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="J7">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>6.99</v>
+        <v>15</v>
       </c>
       <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="M7">
+        <v>4.44</v>
+      </c>
+      <c r="N7">
+        <v>1.63</v>
+      </c>
+      <c r="O7">
+        <v>2.05</v>
+      </c>
+      <c r="P7">
+        <v>1.27</v>
+      </c>
+      <c r="Q7">
+        <v>3.4</v>
+      </c>
+      <c r="R7">
         <v>1.52</v>
       </c>
-      <c r="M7">
-        <v>2.35</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>1.44</v>
-      </c>
-      <c r="P7">
-        <v>1.57</v>
-      </c>
-      <c r="Q7">
+      <c r="S7">
+        <v>2.45</v>
+      </c>
+      <c r="T7">
+        <v>1.45</v>
+      </c>
+      <c r="U7">
+        <v>1.25</v>
+      </c>
+      <c r="V7">
+        <v>1.62</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0.89</v>
+      </c>
+      <c r="Y7">
+        <v>1.46</v>
+      </c>
+      <c r="Z7">
+        <v>1.1</v>
+      </c>
+      <c r="AA7">
+        <v>2.56</v>
+      </c>
+      <c r="AB7">
+        <v>1.95</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
         <v>2.25</v>
       </c>
-      <c r="R7">
-        <v>2.1</v>
-      </c>
-      <c r="S7">
-        <v>1.67</v>
-      </c>
-      <c r="T7">
-        <v>1.42</v>
-      </c>
-      <c r="U7">
-        <v>1.31</v>
-      </c>
-      <c r="V7">
-        <v>1.31</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>1.63</v>
-      </c>
-      <c r="AA7">
-        <v>1.63</v>
-      </c>
-      <c r="AB7">
-        <v>1.91</v>
-      </c>
-      <c r="AC7">
-        <v>7.5</v>
-      </c>
-      <c r="AD7">
-        <v>2.2</v>
-      </c>
       <c r="AE7">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AG7">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="AH7">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="AI7">
-        <v>3.8</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1516,105 +1525,105 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="H8">
-        <v>3.13</v>
+        <v>3.54</v>
       </c>
       <c r="I8">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="J8">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="L8">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M8">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="N8">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="O8">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P8">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q8">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R8">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S8">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T8">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="U8">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="V8">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>1.19</v>
+      </c>
+      <c r="Z8">
+        <v>1.11</v>
+      </c>
+      <c r="AA8">
+        <v>2.3</v>
+      </c>
+      <c r="AB8">
+        <v>2.66</v>
+      </c>
+      <c r="AC8">
+        <v>8.5</v>
+      </c>
+      <c r="AD8">
+        <v>1.64</v>
+      </c>
+      <c r="AE8">
+        <v>1.21</v>
+      </c>
+      <c r="AF8">
+        <v>1.58</v>
+      </c>
+      <c r="AG8">
         <v>1.9</v>
       </c>
-      <c r="X8">
-        <v>0.75</v>
-      </c>
-      <c r="Y8">
-        <v>1.57</v>
-      </c>
-      <c r="Z8">
-        <v>1.38</v>
-      </c>
-      <c r="AA8">
-        <v>2.95</v>
-      </c>
-      <c r="AB8">
-        <v>1.8</v>
-      </c>
-      <c r="AC8">
-        <v>5.75</v>
-      </c>
-      <c r="AD8">
-        <v>2.3</v>
-      </c>
-      <c r="AE8">
-        <v>1.18</v>
-      </c>
-      <c r="AF8">
-        <v>1.34</v>
-      </c>
-      <c r="AG8">
-        <v>1.6</v>
-      </c>
       <c r="AH8">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="AI8">
-        <v>2.65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>45166</v>
@@ -1623,105 +1632,105 @@
         <v>57</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G9">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="H9">
-        <v>4.14</v>
+        <v>6.3</v>
       </c>
       <c r="I9">
-        <v>5.83</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M9">
-        <v>4.79</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="O9">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="P9">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Q9">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>1.02</v>
+      </c>
+      <c r="U9">
+        <v>1.1</v>
+      </c>
+      <c r="V9">
+        <v>3.6</v>
+      </c>
+      <c r="W9">
         <v>1.7</v>
       </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
-      <c r="T9">
-        <v>1.13</v>
-      </c>
-      <c r="U9">
-        <v>1.2</v>
-      </c>
-      <c r="V9">
-        <v>2.25</v>
-      </c>
-      <c r="W9">
-        <v>2.3</v>
-      </c>
       <c r="X9">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="Y9">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AA9">
-        <v>3.18</v>
+        <v>3.36</v>
       </c>
       <c r="AB9">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD9">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="AE9">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AG9">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AH9">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="AI9">
-        <v>2.5</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>45166</v>
@@ -1730,100 +1739,100 @@
         <v>57</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="H10">
-        <v>5.41</v>
+        <v>4.75</v>
       </c>
       <c r="I10">
-        <v>10.7</v>
+        <v>6.3</v>
       </c>
       <c r="J10">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>4.79</v>
       </c>
       <c r="N10">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O10">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P10">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q10">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="U10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="V10">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="W10">
+        <v>2.3</v>
+      </c>
+      <c r="X10">
         <v>1.7</v>
       </c>
-      <c r="X10">
-        <v>0.4</v>
-      </c>
       <c r="Y10">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="Z10">
+        <v>1.31</v>
+      </c>
+      <c r="AA10">
+        <v>3.18</v>
+      </c>
+      <c r="AB10">
         <v>1.36</v>
       </c>
-      <c r="AA10">
-        <v>3.36</v>
-      </c>
-      <c r="AB10">
-        <v>1.15</v>
-      </c>
       <c r="AC10">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD10">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG10">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AH10">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="AI10">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1840,19 +1849,19 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G11">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="H11">
-        <v>4.15</v>
+        <v>4.7</v>
       </c>
       <c r="I11">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1867,10 +1876,10 @@
         <v>4.1</v>
       </c>
       <c r="N11">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="O11">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P11">
         <v>1.33</v>
@@ -1935,7 +1944,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>45166</v>
@@ -1947,97 +1956,97 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12">
-        <v>2.24</v>
+        <v>1.77</v>
       </c>
       <c r="H12">
-        <v>3.19</v>
+        <v>3.64</v>
       </c>
       <c r="I12">
-        <v>2.71</v>
+        <v>4.37</v>
       </c>
       <c r="J12">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="M12">
-        <v>4.44</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="P12">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="Q12">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="U12">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V12">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="X12">
         <v>0.89</v>
       </c>
       <c r="Y12">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="Z12">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>2.56</v>
+        <v>2.37</v>
       </c>
       <c r="AB12">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="AC12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD12">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF12">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AG12">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AH12">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AI12">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2054,19 +2063,19 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G13">
-        <v>3.79</v>
+        <v>3.85</v>
       </c>
       <c r="H13">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="I13">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="J13">
         <v>1.01</v>
@@ -2081,10 +2090,10 @@
         <v>4.8</v>
       </c>
       <c r="N13">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="P13">
         <v>1.3</v>
@@ -2161,19 +2170,19 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G14">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
       <c r="H14">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="J14">
         <v>1.07</v>
@@ -2188,10 +2197,10 @@
         <v>3.1</v>
       </c>
       <c r="N14">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O14">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P14">
         <v>1.4</v>
@@ -2268,19 +2277,19 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G15">
-        <v>2.11</v>
+        <v>2.26</v>
       </c>
       <c r="H15">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="I15">
-        <v>3.36</v>
+        <v>3.85</v>
       </c>
       <c r="J15">
         <v>1.12</v>
@@ -2289,16 +2298,16 @@
         <v>5.7</v>
       </c>
       <c r="L15">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M15">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P15">
         <v>1.67</v>
@@ -2375,58 +2384,58 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G16">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H16">
-        <v>3.66</v>
+        <v>4.19</v>
       </c>
       <c r="I16">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="J16">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="M16">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="N16">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O16">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="P16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q16">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R16">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S16">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T16">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U16">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="V16">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W16">
         <v>3</v>
@@ -2435,42 +2444,42 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="Z16">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AA16">
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE16">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AF16">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="AG16">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="AH16">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
       <c r="AI16">
-        <v>4.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>45166</v>
@@ -2479,22 +2488,22 @@
         <v>60</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G17">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="H17">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
       <c r="I17">
-        <v>3.01</v>
+        <v>2.9</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2503,81 +2512,81 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="M17">
-        <v>5.16</v>
+        <v>3.8</v>
       </c>
       <c r="N17">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="O17">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="P17">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="Q17">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R17">
+        <v>1.62</v>
+      </c>
+      <c r="S17">
+        <v>2.2</v>
+      </c>
+      <c r="T17">
         <v>1.42</v>
       </c>
-      <c r="S17">
-        <v>2.6</v>
-      </c>
-      <c r="T17">
-        <v>1.3</v>
-      </c>
       <c r="U17">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V17">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="W17">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="X17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="Z17">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AA17">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="AB17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AC17">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="AD17">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF17">
-        <v>1.15</v>
+        <v>1.66</v>
       </c>
       <c r="AG17">
-        <v>1.3</v>
+        <v>2.12</v>
       </c>
       <c r="AH17">
-        <v>1.58</v>
+        <v>2.9</v>
       </c>
       <c r="AI17">
-        <v>1.95</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>45166</v>
@@ -2589,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G18">
         <v>2.7</v>
@@ -2684,7 +2693,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>45166</v>
@@ -2693,100 +2702,100 @@
         <v>60</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G19">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="H19">
-        <v>4.19</v>
+        <v>3.54</v>
       </c>
       <c r="I19">
-        <v>2.73</v>
+        <v>3.01</v>
       </c>
       <c r="J19">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M19">
-        <v>4.4</v>
+        <v>5.16</v>
       </c>
       <c r="N19">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="O19">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="P19">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
       </c>
       <c r="R19">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="S19">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="T19">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="U19">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V19">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y19">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="Z19">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AA19">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AE19">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AG19">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="AH19">
-        <v>2.23</v>
+        <v>1.58</v>
       </c>
       <c r="AI19">
-        <v>3</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2803,19 +2812,19 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20">
-        <v>3.89</v>
+        <v>4.39</v>
       </c>
       <c r="H20">
-        <v>3.22</v>
+        <v>3.74</v>
       </c>
       <c r="I20">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="J20">
         <v>1.03</v>
@@ -2830,10 +2839,10 @@
         <v>3.65</v>
       </c>
       <c r="N20">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O20">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="P20">
         <v>1.35</v>
@@ -2898,7 +2907,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
         <v>45166</v>
@@ -2907,105 +2916,105 @@
         <v>62</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G21">
-        <v>3.46</v>
+        <v>7.19</v>
       </c>
       <c r="H21">
-        <v>3.48</v>
+        <v>4.76</v>
       </c>
       <c r="I21">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K21">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="O21">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="P21">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R21">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>1.71</v>
+        <v>2.88</v>
       </c>
       <c r="U21">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="V21">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AC21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD21">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="AE21">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AF21">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AG21">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="AH21">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="AI21">
-        <v>3.74</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
         <v>45166</v>
@@ -3014,100 +3023,100 @@
         <v>62</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G22">
-        <v>6.33</v>
+        <v>3.42</v>
       </c>
       <c r="H22">
-        <v>4.35</v>
+        <v>3.68</v>
       </c>
       <c r="I22">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="J22">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="L22">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O22">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="P22">
+        <v>1.36</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1.67</v>
+      </c>
+      <c r="S22">
+        <v>2.1</v>
+      </c>
+      <c r="T22">
+        <v>1.71</v>
+      </c>
+      <c r="U22">
+        <v>1.26</v>
+      </c>
+      <c r="V22">
+        <v>1.3</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1.26</v>
+      </c>
+      <c r="Z22">
+        <v>1.85</v>
+      </c>
+      <c r="AA22">
+        <v>3.11</v>
+      </c>
+      <c r="AB22">
+        <v>2.4</v>
+      </c>
+      <c r="AC22">
+        <v>7</v>
+      </c>
+      <c r="AD22">
+        <v>1.85</v>
+      </c>
+      <c r="AE22">
         <v>1.33</v>
       </c>
-      <c r="Q22">
-        <v>3.25</v>
-      </c>
-      <c r="R22">
-        <v>1.95</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.88</v>
-      </c>
-      <c r="U22">
-        <v>1.21</v>
-      </c>
-      <c r="V22">
-        <v>1.13</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>3.8</v>
-      </c>
-      <c r="AC22">
-        <v>8</v>
-      </c>
-      <c r="AD22">
-        <v>1.4</v>
-      </c>
-      <c r="AE22">
-        <v>1.29</v>
-      </c>
       <c r="AF22">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AG22">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AH22">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="AI22">
-        <v>3.48</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3124,19 +3133,19 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="I23">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3151,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O23">
         <v>2.05</v>
@@ -3231,19 +3240,19 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G24">
-        <v>3.36</v>
+        <v>4.24</v>
       </c>
       <c r="H24">
-        <v>3.18</v>
+        <v>3.91</v>
       </c>
       <c r="I24">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J24">
         <v>1.06</v>
@@ -3258,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="O24">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="P24">
         <v>1.44</v>
@@ -3326,7 +3335,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
         <v>45166</v>
@@ -3338,19 +3347,19 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G25">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="H25">
-        <v>3.09</v>
+        <v>3.13</v>
       </c>
       <c r="I25">
-        <v>3.22</v>
+        <v>3.68</v>
       </c>
       <c r="J25">
         <v>1.12</v>
@@ -3359,16 +3368,16 @@
         <v>6.97</v>
       </c>
       <c r="L25">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M25">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O25">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P25">
         <v>1.57</v>
@@ -3445,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3499,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -3549,100 +3558,100 @@
         <v>66</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G27">
-        <v>2.25</v>
+        <v>3.58</v>
       </c>
       <c r="H27">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="I27">
-        <v>3.4</v>
+        <v>1.97</v>
       </c>
       <c r="J27">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O27">
+        <v>1.82</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.87</v>
+      </c>
+      <c r="X27">
+        <v>1.47</v>
+      </c>
+      <c r="Y27">
         <v>1.5</v>
       </c>
-      <c r="P27">
-        <v>1.57</v>
-      </c>
-      <c r="Q27">
-        <v>2.25</v>
-      </c>
-      <c r="R27">
-        <v>2.2</v>
-      </c>
-      <c r="S27">
-        <v>1.62</v>
-      </c>
-      <c r="T27">
-        <v>1.33</v>
-      </c>
-      <c r="U27">
-        <v>1.3</v>
-      </c>
-      <c r="V27">
-        <v>1.65</v>
-      </c>
-      <c r="W27">
-        <v>1.43</v>
-      </c>
-      <c r="X27">
-        <v>0.77</v>
-      </c>
-      <c r="Y27">
-        <v>1.47</v>
-      </c>
       <c r="Z27">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AA27">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="AB27">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3656,52 +3665,52 @@
         <v>66</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G28">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="H28">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="I28">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="J28">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K28">
-        <v>13</v>
+        <v>5.75</v>
       </c>
       <c r="L28">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="M28">
-        <v>3.96</v>
+        <v>2.49</v>
       </c>
       <c r="N28">
-        <v>1.81</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R28">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="S28">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="T28">
         <v>1.33</v>
@@ -3710,43 +3719,43 @@
         <v>1.3</v>
       </c>
       <c r="V28">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="W28">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="X28">
-        <v>1.2</v>
+        <v>0.77</v>
       </c>
       <c r="Y28">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="Z28">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AA28">
-        <v>3.1</v>
+        <v>2.71</v>
       </c>
       <c r="AB28">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AC28">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD28">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="AE28">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF28">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AG28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AH28">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="AI28">
         <v>3.4</v>
@@ -3763,100 +3772,100 @@
         <v>66</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G29">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H29">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="I29">
-        <v>5.25</v>
+        <v>3.36</v>
       </c>
       <c r="J29">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K29">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="L29">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M29">
-        <v>2.3</v>
+        <v>3.96</v>
       </c>
       <c r="N29">
-        <v>2.68</v>
+        <v>1.71</v>
       </c>
       <c r="O29">
-        <v>1.38</v>
+        <v>1.94</v>
       </c>
       <c r="P29">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="Q29">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="S29">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="T29">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="U29">
         <v>1.3</v>
       </c>
       <c r="V29">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="W29">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="X29">
-        <v>0.58</v>
+        <v>1.2</v>
       </c>
       <c r="Y29">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="Z29">
-        <v>0.99</v>
+        <v>1.3</v>
       </c>
       <c r="AA29">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB29">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AC29">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD29">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="AE29">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AF29">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AG29">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AH29">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AI29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3870,100 +3879,207 @@
         <v>66</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G30">
-        <v>3.58</v>
+        <v>1.79</v>
       </c>
       <c r="H30">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="I30">
-        <v>1.97</v>
+        <v>5.35</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="N30">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="O30">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W30">
-        <v>0.87</v>
+        <v>1.42</v>
       </c>
       <c r="X30">
-        <v>1.47</v>
+        <v>0.58</v>
       </c>
       <c r="Y30">
+        <v>1.51</v>
+      </c>
+      <c r="Z30">
+        <v>0.99</v>
+      </c>
+      <c r="AA30">
+        <v>2.5</v>
+      </c>
+      <c r="AB30">
+        <v>1.48</v>
+      </c>
+      <c r="AC30">
+        <v>9.5</v>
+      </c>
+      <c r="AD30">
+        <v>3.2</v>
+      </c>
+      <c r="AE30">
+        <v>1.26</v>
+      </c>
+      <c r="AF30">
+        <v>1.49</v>
+      </c>
+      <c r="AG30">
+        <v>1.87</v>
+      </c>
+      <c r="AH30">
+        <v>2.39</v>
+      </c>
+      <c r="AI30">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31">
+        <v>2.05</v>
+      </c>
+      <c r="H31">
+        <v>3.2</v>
+      </c>
+      <c r="I31">
+        <v>3.8</v>
+      </c>
+      <c r="J31">
+        <v>1.08</v>
+      </c>
+      <c r="K31">
+        <v>7.15</v>
+      </c>
+      <c r="L31">
         <v>1.5</v>
       </c>
-      <c r="Z30">
-        <v>1.15</v>
-      </c>
-      <c r="AA30">
-        <v>2.65</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
+      <c r="M31">
+        <v>2.45</v>
+      </c>
+      <c r="N31">
+        <v>2.5</v>
+      </c>
+      <c r="O31">
+        <v>1.5</v>
+      </c>
+      <c r="P31">
+        <v>1.57</v>
+      </c>
+      <c r="Q31">
+        <v>2.25</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>1.62</v>
+      </c>
+      <c r="T31">
+        <v>1.28</v>
+      </c>
+      <c r="U31">
+        <v>1.3</v>
+      </c>
+      <c r="V31">
+        <v>1.75</v>
+      </c>
+      <c r="W31">
+        <v>1.69</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1.42</v>
+      </c>
+      <c r="Z31">
+        <v>1.2</v>
+      </c>
+      <c r="AA31">
+        <v>2.62</v>
+      </c>
+      <c r="AB31">
+        <v>1.7</v>
+      </c>
+      <c r="AC31">
+        <v>8.6</v>
+      </c>
+      <c r="AD31">
+        <v>2.57</v>
+      </c>
+      <c r="AE31">
+        <v>1.36</v>
+      </c>
+      <c r="AF31">
+        <v>1.67</v>
+      </c>
+      <c r="AG31">
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <v>2.9</v>
+      </c>
+      <c r="AI31">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -133,15 +133,15 @@
     <t>Spain Segunda División</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Norway First Division</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>Spain La Liga</t>
   </si>
   <si>
+    <t>Iceland Úrvalsdeild</t>
+  </si>
+  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Iceland Úrvalsdeild</t>
-  </si>
-  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
@@ -232,15 +232,15 @@
     <t>CD Eldense</t>
   </si>
   <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>GIF Sundsvall</t>
+  </si>
+  <si>
     <t>Moss</t>
   </si>
   <si>
-    <t>GIF Sundsvall</t>
-  </si>
-  <si>
-    <t>Vejle</t>
-  </si>
-  <si>
     <t>GAIS</t>
   </si>
   <si>
@@ -262,27 +262,27 @@
     <t>Getafe CF</t>
   </si>
   <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
     <t>PSV II</t>
   </si>
   <si>
-    <t>AZ II</t>
-  </si>
-  <si>
-    <t>Adana Demirspor</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
     <t>UTA Arad</t>
   </si>
   <si>
+    <t>Annecy</t>
+  </si>
+  <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Annecy</t>
-  </si>
-  <si>
     <t>Rio Ave FC</t>
   </si>
   <si>
@@ -322,15 +322,15 @@
     <t>SD Eibar</t>
   </si>
   <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Jönköpings Södra</t>
+  </si>
+  <si>
     <t>Kristiansund</t>
   </si>
   <si>
-    <t>Jönköpings Södra</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
     <t>Skövde AIK</t>
   </si>
   <si>
@@ -352,25 +352,25 @@
     <t>Deportivo Alavés</t>
   </si>
   <si>
+    <t>ÍBV</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
     <t>Helmond Sport</t>
   </si>
   <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>Beşiktaş</t>
-  </si>
-  <si>
-    <t>ÍBV</t>
-  </si>
-  <si>
     <t>FCSB</t>
   </si>
   <si>
+    <t>Saint-Étienne</t>
+  </si>
+  <si>
     <t>Inter Milan</t>
-  </si>
-  <si>
-    <t>Saint-Étienne</t>
   </si>
   <si>
     <t>Porto</t>
@@ -895,10 +895,10 @@
         <v>2.2</v>
       </c>
       <c r="H2">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -907,16 +907,16 @@
         <v>6.55</v>
       </c>
       <c r="L2">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M2">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="N2">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="P2">
         <v>1.53</v>
@@ -940,10 +940,10 @@
         <v>1.64</v>
       </c>
       <c r="W2">
+        <v>1.33</v>
+      </c>
+      <c r="X2">
         <v>1.5</v>
-      </c>
-      <c r="X2">
-        <v>1.67</v>
       </c>
       <c r="Y2">
         <v>2.04</v>
@@ -999,13 +999,13 @@
         <v>99</v>
       </c>
       <c r="G3">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I3">
-        <v>2.74</v>
+        <v>2.49</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1020,10 +1020,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="O3">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1047,10 +1047,10 @@
         <v>1.48</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H4">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="I4">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="J4">
         <v>1.06</v>
@@ -1127,10 +1127,10 @@
         <v>3.3</v>
       </c>
       <c r="N4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1154,7 +1154,7 @@
         <v>1.52</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>101</v>
       </c>
       <c r="G5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J5">
         <v>1.11</v>
@@ -1228,16 +1228,16 @@
         <v>6.99</v>
       </c>
       <c r="L5">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N5">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="O5">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="P5">
         <v>1.57</v>
@@ -1261,7 +1261,7 @@
         <v>1.31</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>57</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
@@ -1320,91 +1320,91 @@
         <v>102</v>
       </c>
       <c r="G6">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="H6">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="I6">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="J6">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="L6">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="O6">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="P6">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q6">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R6">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S6">
+        <v>2.1</v>
+      </c>
+      <c r="T6">
+        <v>1.83</v>
+      </c>
+      <c r="U6">
+        <v>1.24</v>
+      </c>
+      <c r="V6">
+        <v>1.3</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>2.25</v>
       </c>
-      <c r="T6">
-        <v>1.63</v>
-      </c>
-      <c r="U6">
-        <v>1.25</v>
-      </c>
-      <c r="V6">
-        <v>1.4</v>
-      </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>1.19</v>
+      </c>
+      <c r="Z6">
+        <v>1.11</v>
+      </c>
+      <c r="AA6">
+        <v>2.3</v>
+      </c>
+      <c r="AB6">
+        <v>2.66</v>
+      </c>
+      <c r="AC6">
+        <v>8.5</v>
+      </c>
+      <c r="AD6">
+        <v>1.64</v>
+      </c>
+      <c r="AE6">
+        <v>1.21</v>
+      </c>
+      <c r="AF6">
+        <v>1.58</v>
+      </c>
+      <c r="AG6">
         <v>1.9</v>
       </c>
-      <c r="X6">
-        <v>0.75</v>
-      </c>
-      <c r="Y6">
-        <v>1.57</v>
-      </c>
-      <c r="Z6">
-        <v>1.38</v>
-      </c>
-      <c r="AA6">
-        <v>2.95</v>
-      </c>
-      <c r="AB6">
-        <v>1.8</v>
-      </c>
-      <c r="AC6">
-        <v>5.75</v>
-      </c>
-      <c r="AD6">
-        <v>2.3</v>
-      </c>
-      <c r="AE6">
-        <v>1.18</v>
-      </c>
-      <c r="AF6">
-        <v>1.34</v>
-      </c>
-      <c r="AG6">
-        <v>1.6</v>
-      </c>
       <c r="AH6">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="AI6">
-        <v>2.65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1430,10 +1430,10 @@
         <v>2.33</v>
       </c>
       <c r="H7">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I7">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="J7">
         <v>1.03</v>
@@ -1448,10 +1448,10 @@
         <v>4.44</v>
       </c>
       <c r="N7">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O7">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P7">
         <v>1.27</v>
@@ -1475,10 +1475,10 @@
         <v>1.62</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X7">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="Y7">
         <v>1.46</v>
@@ -1525,7 +1525,7 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
@@ -1534,91 +1534,91 @@
         <v>104</v>
       </c>
       <c r="G8">
-        <v>3.39</v>
+        <v>2.52</v>
       </c>
       <c r="H8">
-        <v>3.54</v>
+        <v>3.7</v>
       </c>
       <c r="I8">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="J8">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="L8">
+        <v>1.22</v>
+      </c>
+      <c r="M8">
+        <v>4.2</v>
+      </c>
+      <c r="N8">
+        <v>1.57</v>
+      </c>
+      <c r="O8">
+        <v>2.25</v>
+      </c>
+      <c r="P8">
+        <v>1.32</v>
+      </c>
+      <c r="Q8">
+        <v>3.1</v>
+      </c>
+      <c r="R8">
+        <v>1.62</v>
+      </c>
+      <c r="S8">
+        <v>2.25</v>
+      </c>
+      <c r="T8">
+        <v>1.63</v>
+      </c>
+      <c r="U8">
         <v>1.25</v>
       </c>
-      <c r="M8">
-        <v>3.95</v>
-      </c>
-      <c r="N8">
-        <v>1.76</v>
-      </c>
-      <c r="O8">
-        <v>1.85</v>
-      </c>
-      <c r="P8">
-        <v>1.33</v>
-      </c>
-      <c r="Q8">
-        <v>3.25</v>
-      </c>
-      <c r="R8">
-        <v>1.67</v>
-      </c>
-      <c r="S8">
-        <v>2.1</v>
-      </c>
-      <c r="T8">
-        <v>1.83</v>
-      </c>
-      <c r="U8">
-        <v>1.24</v>
-      </c>
       <c r="V8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="Z8">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AA8">
+        <v>2.95</v>
+      </c>
+      <c r="AB8">
+        <v>1.8</v>
+      </c>
+      <c r="AC8">
+        <v>5.75</v>
+      </c>
+      <c r="AD8">
         <v>2.3</v>
       </c>
-      <c r="AB8">
-        <v>2.66</v>
-      </c>
-      <c r="AC8">
-        <v>8.5</v>
-      </c>
-      <c r="AD8">
-        <v>1.64</v>
-      </c>
       <c r="AE8">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF8">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AG8">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AH8">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="AI8">
-        <v>3</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1641,13 +1641,13 @@
         <v>105</v>
       </c>
       <c r="G9">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="H9">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
         <v>1.02</v>
@@ -1662,10 +1662,10 @@
         <v>5</v>
       </c>
       <c r="N9">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="O9">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="P9">
         <v>1.27</v>
@@ -1689,10 +1689,10 @@
         <v>3.6</v>
       </c>
       <c r="W9">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X9">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="Y9">
         <v>2</v>
@@ -1748,13 +1748,13 @@
         <v>106</v>
       </c>
       <c r="G10">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="H10">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="I10">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="J10">
         <v>1.03</v>
@@ -1769,10 +1769,10 @@
         <v>4.79</v>
       </c>
       <c r="N10">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O10">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="P10">
         <v>1.29</v>
@@ -1796,10 +1796,10 @@
         <v>2.25</v>
       </c>
       <c r="W10">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X10">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Y10">
         <v>1.87</v>
@@ -1855,13 +1855,13 @@
         <v>107</v>
       </c>
       <c r="G11">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="H11">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1876,10 +1876,10 @@
         <v>4.1</v>
       </c>
       <c r="N11">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="O11">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="P11">
         <v>1.33</v>
@@ -1903,10 +1903,10 @@
         <v>2.8</v>
       </c>
       <c r="W11">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="X11">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="Y11">
         <v>1.66</v>
@@ -1962,13 +1962,13 @@
         <v>108</v>
       </c>
       <c r="G12">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="H12">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="I12">
-        <v>4.37</v>
+        <v>3.75</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -1983,10 +1983,10 @@
         <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="O12">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="P12">
         <v>1.34</v>
@@ -2010,10 +2010,10 @@
         <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="X12">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="Y12">
         <v>1.57</v>
@@ -2069,13 +2069,13 @@
         <v>109</v>
       </c>
       <c r="G13">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H13">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="I13">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="J13">
         <v>1.01</v>
@@ -2090,10 +2090,10 @@
         <v>4.8</v>
       </c>
       <c r="N13">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="O13">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="P13">
         <v>1.3</v>
@@ -2117,10 +2117,10 @@
         <v>1.19</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="X13">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="Y13">
         <v>1.63</v>
@@ -2176,13 +2176,13 @@
         <v>110</v>
       </c>
       <c r="G14">
-        <v>3.83</v>
+        <v>3.25</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="J14">
         <v>1.07</v>
@@ -2197,10 +2197,10 @@
         <v>3.1</v>
       </c>
       <c r="N14">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P14">
         <v>1.4</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y14">
         <v>1.48</v>
@@ -2283,13 +2283,13 @@
         <v>111</v>
       </c>
       <c r="G15">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="H15">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="I15">
-        <v>3.85</v>
+        <v>3.73</v>
       </c>
       <c r="J15">
         <v>1.12</v>
@@ -2298,16 +2298,16 @@
         <v>5.7</v>
       </c>
       <c r="L15">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O15">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P15">
         <v>1.67</v>
@@ -2331,7 +2331,7 @@
         <v>1.65</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>60</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
         <v>82</v>
@@ -2390,96 +2390,96 @@
         <v>112</v>
       </c>
       <c r="G16">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="H16">
-        <v>4.19</v>
+        <v>3.8</v>
       </c>
       <c r="I16">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="J16">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M16">
-        <v>4.4</v>
+        <v>5.16</v>
       </c>
       <c r="N16">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="O16">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q16">
         <v>3.4</v>
       </c>
       <c r="R16">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="S16">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="T16">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="U16">
+        <v>1.25</v>
+      </c>
+      <c r="V16">
+        <v>1.67</v>
+      </c>
+      <c r="W16">
         <v>1.27</v>
       </c>
-      <c r="V16">
-        <v>1.61</v>
-      </c>
-      <c r="W16">
-        <v>3</v>
-      </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Y16">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="Z16">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AA16">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="AB16">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC16">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="AD16">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="AE16">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AG16">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="AH16">
-        <v>2.23</v>
+        <v>1.58</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>45166</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>45166</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
         <v>45166</v>
@@ -2702,7 +2702,7 @@
         <v>60</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>85</v>
@@ -2711,91 +2711,91 @@
         <v>115</v>
       </c>
       <c r="G19">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="H19">
-        <v>3.54</v>
+        <v>4.19</v>
       </c>
       <c r="I19">
-        <v>3.01</v>
+        <v>2.73</v>
       </c>
       <c r="J19">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="M19">
-        <v>5.16</v>
+        <v>4.4</v>
       </c>
       <c r="N19">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="O19">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="P19">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
       </c>
       <c r="R19">
+        <v>1.53</v>
+      </c>
+      <c r="S19">
+        <v>2.38</v>
+      </c>
+      <c r="T19">
+        <v>1.43</v>
+      </c>
+      <c r="U19">
+        <v>1.27</v>
+      </c>
+      <c r="V19">
+        <v>1.61</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1.18</v>
+      </c>
+      <c r="Z19">
+        <v>1.39</v>
+      </c>
+      <c r="AA19">
+        <v>2.57</v>
+      </c>
+      <c r="AB19">
+        <v>1.91</v>
+      </c>
+      <c r="AC19">
+        <v>7</v>
+      </c>
+      <c r="AD19">
+        <v>2.3</v>
+      </c>
+      <c r="AE19">
+        <v>1.22</v>
+      </c>
+      <c r="AF19">
         <v>1.42</v>
       </c>
-      <c r="S19">
-        <v>2.6</v>
-      </c>
-      <c r="T19">
-        <v>1.3</v>
-      </c>
-      <c r="U19">
-        <v>1.25</v>
-      </c>
-      <c r="V19">
-        <v>1.67</v>
-      </c>
-      <c r="W19">
-        <v>1.3</v>
-      </c>
-      <c r="X19">
-        <v>0.4</v>
-      </c>
-      <c r="Y19">
-        <v>1.42</v>
-      </c>
-      <c r="Z19">
-        <v>1.34</v>
-      </c>
-      <c r="AA19">
-        <v>2.76</v>
-      </c>
-      <c r="AB19">
-        <v>1.8</v>
-      </c>
-      <c r="AC19">
-        <v>9.9</v>
-      </c>
-      <c r="AD19">
-        <v>2.29</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1.15</v>
-      </c>
       <c r="AG19">
-        <v>1.3</v>
+        <v>1.74</v>
       </c>
       <c r="AH19">
-        <v>1.58</v>
+        <v>2.23</v>
       </c>
       <c r="AI19">
-        <v>1.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2818,13 +2818,13 @@
         <v>116</v>
       </c>
       <c r="G20">
-        <v>4.39</v>
+        <v>3.45</v>
       </c>
       <c r="H20">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="I20">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="J20">
         <v>1.03</v>
@@ -2839,10 +2839,10 @@
         <v>3.65</v>
       </c>
       <c r="N20">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="O20">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="P20">
         <v>1.35</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>45166</v>
@@ -2916,7 +2916,7 @@
         <v>62</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>87</v>
@@ -2925,96 +2925,96 @@
         <v>117</v>
       </c>
       <c r="G21">
-        <v>7.19</v>
+        <v>3.15</v>
       </c>
       <c r="H21">
-        <v>4.76</v>
+        <v>3.5</v>
       </c>
       <c r="I21">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="J21">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="L21">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="O21">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="P21">
+        <v>1.36</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>1.67</v>
+      </c>
+      <c r="S21">
+        <v>2.1</v>
+      </c>
+      <c r="T21">
+        <v>1.71</v>
+      </c>
+      <c r="U21">
+        <v>1.26</v>
+      </c>
+      <c r="V21">
+        <v>1.3</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1.26</v>
+      </c>
+      <c r="Z21">
+        <v>1.85</v>
+      </c>
+      <c r="AA21">
+        <v>3.11</v>
+      </c>
+      <c r="AB21">
+        <v>2.4</v>
+      </c>
+      <c r="AC21">
+        <v>7</v>
+      </c>
+      <c r="AD21">
+        <v>1.85</v>
+      </c>
+      <c r="AE21">
         <v>1.33</v>
       </c>
-      <c r="Q21">
-        <v>3.25</v>
-      </c>
-      <c r="R21">
-        <v>1.95</v>
-      </c>
-      <c r="S21">
-        <v>1.8</v>
-      </c>
-      <c r="T21">
-        <v>2.88</v>
-      </c>
-      <c r="U21">
-        <v>1.21</v>
-      </c>
-      <c r="V21">
-        <v>1.13</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>3.8</v>
-      </c>
-      <c r="AC21">
-        <v>8</v>
-      </c>
-      <c r="AD21">
-        <v>1.4</v>
-      </c>
-      <c r="AE21">
-        <v>1.29</v>
-      </c>
       <c r="AF21">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AG21">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AH21">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="AI21">
-        <v>3.48</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>45166</v>
@@ -3023,7 +3023,7 @@
         <v>62</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
@@ -3032,91 +3032,91 @@
         <v>118</v>
       </c>
       <c r="G22">
-        <v>3.42</v>
+        <v>6.4</v>
       </c>
       <c r="H22">
-        <v>3.68</v>
+        <v>4.65</v>
       </c>
       <c r="I22">
-        <v>2.04</v>
+        <v>1.49</v>
       </c>
       <c r="J22">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K22">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="O22">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="P22">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R22">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>1.71</v>
+        <v>2.88</v>
       </c>
       <c r="U22">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="V22">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AC22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD22">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="AE22">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AF22">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AG22">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="AH22">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="AI22">
-        <v>3.74</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3139,13 +3139,13 @@
         <v>119</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="H23">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="I23">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="O23">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>120</v>
       </c>
       <c r="G24">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="H24">
-        <v>3.91</v>
+        <v>3.7</v>
       </c>
       <c r="I24">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J24">
         <v>1.06</v>
@@ -3267,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="P24">
         <v>1.44</v>
@@ -3353,13 +3353,13 @@
         <v>121</v>
       </c>
       <c r="G25">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="H25">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="I25">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="J25">
         <v>1.12</v>
@@ -3368,16 +3368,16 @@
         <v>6.97</v>
       </c>
       <c r="L25">
+        <v>1.52</v>
+      </c>
+      <c r="M25">
+        <v>2.35</v>
+      </c>
+      <c r="N25">
+        <v>2.36</v>
+      </c>
+      <c r="O25">
         <v>1.53</v>
-      </c>
-      <c r="M25">
-        <v>2.55</v>
-      </c>
-      <c r="N25">
-        <v>2.52</v>
-      </c>
-      <c r="O25">
-        <v>1.4</v>
       </c>
       <c r="P25">
         <v>1.57</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3567,10 +3567,10 @@
         <v>123</v>
       </c>
       <c r="G27">
-        <v>3.58</v>
+        <v>3.25</v>
       </c>
       <c r="H27">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="I27">
         <v>1.97</v>
@@ -3591,7 +3591,7 @@
         <v>1.95</v>
       </c>
       <c r="O27">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="H29">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="I29">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="J29">
         <v>1.03</v>
@@ -3802,10 +3802,10 @@
         <v>3.96</v>
       </c>
       <c r="N29">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="O29">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="P29">
         <v>1.36</v>
@@ -3888,13 +3888,13 @@
         <v>126</v>
       </c>
       <c r="G30">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="H30">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I30">
-        <v>5.35</v>
+        <v>4.5</v>
       </c>
       <c r="J30">
         <v>1.09</v>
@@ -3903,10 +3903,10 @@
         <v>6.4</v>
       </c>
       <c r="L30">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="M30">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="N30">
         <v>2.68</v>
